--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11325"/>
+    <workbookView windowWidth="19635" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="好友助力" sheetId="26" r:id="rId2"/>
+    <sheet name="好友助战" sheetId="26" r:id="rId2"/>
     <sheet name="好友分享点击" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>sheet名</t>
   </si>
@@ -39,7 +39,7 @@
     <t>是否导出</t>
   </si>
   <si>
-    <t>好友助力</t>
+    <t>好友助战</t>
   </si>
   <si>
     <t>friendsHelp.json</t>
@@ -48,7 +48,7 @@
     <t>times</t>
   </si>
   <si>
-    <t>客户端配置好友助力的表</t>
+    <t>客户端配置好友助战的表</t>
   </si>
   <si>
     <t>好友分享点击</t>
@@ -117,22 +117,19 @@
     <t>奖励数量</t>
   </si>
   <si>
+    <t>邀请1人</t>
+  </si>
+  <si>
+    <t>幸运宝箱</t>
+  </si>
+  <si>
+    <t>邀请2人</t>
+  </si>
+  <si>
     <t>邀请3人</t>
   </si>
   <si>
-    <t>幸运宝箱</t>
-  </si>
-  <si>
-    <t>邀请6人</t>
-  </si>
-  <si>
-    <t>邀请9人</t>
-  </si>
-  <si>
-    <t>邀请12人</t>
-  </si>
-  <si>
-    <t>邀请15人</t>
+    <t>邀请5人</t>
   </si>
 </sst>
 </file>
@@ -141,11 +138,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,67 +165,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,55 +231,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +254,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -310,10 +314,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,36 +329,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,19 +359,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,193 +413,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,30 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -643,6 +603,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,28 +669,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,175 +703,175 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -920,7 +904,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
@@ -1258,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1357,8 +1341,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1418,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:4">
@@ -1432,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:4">
@@ -1446,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:4">
@@ -1460,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1473,13 +1457,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
@@ -1544,7 +1528,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>34</v>
@@ -1561,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>34</v>
@@ -1578,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>34</v>
@@ -1595,30 +1579,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="9">
         <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -1,22 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD65653-3320-4C5A-BF80-227F53F7AAA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="好友助战" sheetId="26" r:id="rId2"/>
     <sheet name="好友分享点击" sheetId="27" r:id="rId3"/>
+    <sheet name="补给站" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LIPENG</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{0079A999-9EE2-44CD-AB2F-B1275AE9550D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LIPENG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 分享
+2. 看视频</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>sheet名</t>
   </si>
@@ -130,19 +174,139 @@
   </si>
   <si>
     <t>邀请5人</t>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].id</t>
+  </si>
+  <si>
+    <t>award[2].valw</t>
+  </si>
+  <si>
+    <t>award[2].valv</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日次数限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励道具2</t>
+  </si>
+  <si>
+    <t>奖励权重2</t>
+  </si>
+  <si>
+    <t>奖励值2</t>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡卷</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备精炼石宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,63 +329,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,89 +339,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -343,8 +370,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,193 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,12 +447,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -592,104 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -701,282 +487,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="12" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1234,19 +839,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1257,7 +862,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="54" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1326,32 +931,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1405,7 +1009,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1419,7 +1023,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1430,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1448,22 +1052,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
@@ -1471,7 +1074,7 @@
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:5">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1537,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1554,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1571,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1589,7 +1192,271 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="29" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>102</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>103</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>104</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>105</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>106</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>107</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD65653-3320-4C5A-BF80-227F53F7AAA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507CCC6-563F-4178-8B98-4199EE97A628}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="好友分享点击" sheetId="27" r:id="rId3"/>
     <sheet name="补给站" sheetId="28" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
           </rPr>
           <t xml:space="preserve">
 1. 分享
-2. 看视频</t>
+2. 看视频，视频次数不够为分享</t>
         </r>
       </text>
     </comment>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>sheet名</t>
   </si>
@@ -128,112 +128,109 @@
     <t>备注</t>
   </si>
   <si>
+    <t>好友第1个</t>
+  </si>
+  <si>
+    <t>好友第2个</t>
+  </si>
+  <si>
+    <t>好友第3个</t>
+  </si>
+  <si>
+    <t>好友第4个</t>
+  </si>
+  <si>
+    <t>award[1].id</t>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>奖励id</t>
+  </si>
+  <si>
+    <t>奖励数量</t>
+  </si>
+  <si>
+    <t>邀请1人</t>
+  </si>
+  <si>
+    <t>幸运宝箱</t>
+  </si>
+  <si>
+    <t>邀请2人</t>
+  </si>
+  <si>
+    <t>邀请3人</t>
+  </si>
+  <si>
+    <t>邀请5人</t>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].id</t>
+  </si>
+  <si>
+    <t>award[2].valw</t>
+  </si>
+  <si>
+    <t>award[2].valv</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>好友第1个</t>
-  </si>
-  <si>
-    <t>好友第2个</t>
-  </si>
-  <si>
-    <t>好友第3个</t>
-  </si>
-  <si>
-    <t>好友第4个</t>
-  </si>
-  <si>
-    <t>award[1].id</t>
-  </si>
-  <si>
-    <t>award[1].valv</t>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-  </si>
-  <si>
-    <t>奖励id</t>
-  </si>
-  <si>
-    <t>奖励数量</t>
-  </si>
-  <si>
-    <t>邀请1人</t>
-  </si>
-  <si>
-    <t>幸运宝箱</t>
-  </si>
-  <si>
-    <t>邀请2人</t>
-  </si>
-  <si>
-    <t>邀请3人</t>
-  </si>
-  <si>
-    <t>邀请5人</t>
-  </si>
-  <si>
-    <t>rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[1].id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[1].valw</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[1].valv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[2].id</t>
-  </si>
-  <si>
-    <t>award[2].valw</t>
-  </si>
-  <si>
-    <t>award[2].valv</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -279,10 +276,9 @@
   </si>
   <si>
     <t>突破丹宝箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命丹宝箱</t>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -299,6 +295,77 @@
   </si>
   <si>
     <t>晶片宝箱</t>
+  </si>
+  <si>
+    <t>晶片宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币幸运宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请数量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币加成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给站</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>depot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.json</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>depot.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端补给站表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端补给站表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命石宝箱</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +474,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -520,13 +601,9 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -556,6 +633,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="12" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -847,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,76 +946,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="b">
+      <c r="G2" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="b">
+      <c r="G3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -946,7 +1071,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,84 +1095,86 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.6</v>
       </c>
     </row>
@@ -1063,13 +1190,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
@@ -1084,110 +1211,110 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1199,259 +1326,406 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="29" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>101</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>102</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>103</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>104</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>102</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
-        <v>103</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="F7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>105</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9">
-        <v>104</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>106</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>107</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
-        <v>106</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
-        <v>107</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0507CCC6-563F-4178-8B98-4199EE97A628}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FA70E-2C60-4839-A04E-D7C1442808FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>sheet名</t>
   </si>
@@ -349,23 +349,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>天命石宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>depot.json</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>id,rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端补给站表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端补给站表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命石宝箱</t>
+    <t>补给站表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,19 +1006,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="D4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>82</v>
@@ -1035,29 +1029,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1328,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1560,7 +1533,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1569,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FA70E-2C60-4839-A04E-D7C1442808FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFCCF5-1686-4498-8740-5305B117DA0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>sheet名</t>
   </si>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>补给站表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldBonusTip</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个金币加成</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -378,18 +386,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -397,12 +408,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -411,6 +424,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -418,6 +432,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -426,12 +441,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -591,7 +608,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +649,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -922,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1041,19 +1070,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,10 +1095,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1080,8 +1114,11 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1091,11 +1128,14 @@
       <c r="C3" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1105,11 +1145,14 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="20">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E4" s="19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1119,11 +1162,14 @@
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1133,11 +1179,14 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="19">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1147,7 +1196,10 @@
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="19">
         <v>0.6</v>
       </c>
     </row>
@@ -1299,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1367,7 @@
     <col min="6" max="29" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1385,7 +1437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -1420,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1455,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1489,8 +1541,10 @@
       <c r="K5" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M5" s="16"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1525,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1560,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1595,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1630,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1664,8 +1718,9 @@
       <c r="K10" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFCCF5-1686-4498-8740-5305B117DA0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F1ED8-D859-4439-9D2E-5A7D2825D5A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="好友助战" sheetId="26" r:id="rId2"/>
     <sheet name="好友分享点击" sheetId="27" r:id="rId3"/>
     <sheet name="补给站" sheetId="28" r:id="rId4"/>
+    <sheet name="小飞箱" sheetId="29" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
   <si>
     <t>sheet名</t>
   </si>
@@ -108,9 +109,6 @@
   </si>
   <si>
     <t>friendsNum</t>
-  </si>
-  <si>
-    <t>goldBonus</t>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
@@ -322,10 +320,6 @@
   </si>
   <si>
     <t>邀请数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币加成</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -366,6 +360,212 @@
   </si>
   <si>
     <t>单个金币加成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[5].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落宝箱ID1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[5].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[6].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[6].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命石小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>flyBox.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端的飞箱表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端的飞箱表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +808,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -634,9 +834,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,9 +852,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -952,7 +1146,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,30 +1230,69 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>78</v>
+      <c r="A4" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>82</v>
+      <c r="C4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1070,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1314,9 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,112 +1327,91 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>0.35</v>
       </c>
-      <c r="E4" s="19">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>0.15</v>
       </c>
-      <c r="E5" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D6" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.6</v>
+      <c r="D7" s="18">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1237,42 +1448,42 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1280,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1297,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1314,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -1331,13 +1542,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
@@ -1369,107 +1580,107 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -1480,7 +1691,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -1488,8 +1699,8 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>63</v>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1497,8 +1708,8 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>71</v>
+      <c r="I4" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -1514,8 +1725,8 @@
       <c r="B5" s="7">
         <v>102</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
+      <c r="C5" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
@@ -1523,8 +1734,8 @@
       <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>73</v>
+      <c r="F5" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1532,8 +1743,8 @@
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>71</v>
+      <c r="I5" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -1541,8 +1752,8 @@
       <c r="K5" s="7">
         <v>10</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -1552,7 +1763,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -1561,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1569,8 +1780,8 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>71</v>
+      <c r="I6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -1586,8 +1797,8 @@
       <c r="B7" s="7">
         <v>104</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>80</v>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1595,8 +1806,8 @@
       <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>80</v>
+      <c r="F7" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1604,8 +1815,8 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>71</v>
+      <c r="I7" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -1622,7 +1833,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1630,8 +1841,8 @@
       <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>66</v>
+      <c r="F8" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1639,8 +1850,8 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>71</v>
+      <c r="I8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -1657,7 +1868,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -1665,8 +1876,8 @@
       <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>74</v>
+      <c r="F9" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1674,8 +1885,8 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>71</v>
+      <c r="I9" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1692,7 +1903,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1701,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -1709,8 +1920,8 @@
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>71</v>
+      <c r="I10" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -1718,7 +1929,7 @@
       <c r="K10" s="7">
         <v>5</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
@@ -1728,7 +1939,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -1737,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -1745,8 +1956,8 @@
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>71</v>
+      <c r="I11" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -1761,4 +1972,647 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC1019-3F24-4F11-A78C-B26745FD98EA}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>102</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>103</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>104</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>105</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>106</v>
+      </c>
+      <c r="C9" s="7">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>107</v>
+      </c>
+      <c r="C10" s="7">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>109</v>
+      </c>
+      <c r="C12" s="7">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F1ED8-D859-4439-9D2E-5A7D2825D5A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F446B-2668-4107-A4CA-7EF26AB6671C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>sheet名</t>
   </si>
@@ -396,6 +396,154 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>award[5].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落宝箱ID1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[5].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[6].itemId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[6].p</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落ID6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励概率6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命石小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>flyBox.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>flyBox.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞箱表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>f</t>
     </r>
@@ -408,164 +556,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>loat:&lt;&gt;</t>
+      <t>loat:&gt;</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>award[5].p</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励概率1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励概率2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落ID2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励概率3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落ID3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励概率4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落ID4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[1].itemId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[2].itemId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[3].itemId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[4].itemId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落宝箱ID1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[5].itemId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落ID5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励概率5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[6].itemId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[6].p</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落ID6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励概率6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破丹小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天命石小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙晶小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶片小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小飞箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>flyBox.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端的飞箱表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端的飞箱表</t>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1143,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1252,45 +1261,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G5" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1979,7 +1969,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2002,49 +1992,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2055,90 +2045,90 @@
         <v>60</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2152,37 +2142,37 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="7">
         <v>3500</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="K4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>1000</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O4" s="7">
         <v>1000</v>
@@ -2196,40 +2186,40 @@
         <v>102</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="7">
         <v>3500</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="K5" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>1000</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O5" s="7">
         <v>1000</v>
@@ -2243,40 +2233,40 @@
         <v>103</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="7">
         <v>3500</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="K6" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>1000</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O6" s="7">
         <v>1000</v>
@@ -2290,40 +2280,40 @@
         <v>104</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="7">
         <v>3500</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="K7" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>1000</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O7" s="7">
         <v>1000</v>
@@ -2337,40 +2327,40 @@
         <v>105</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="7">
         <v>3500</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="K8" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>1000</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O8" s="7">
         <v>1000</v>
@@ -2384,40 +2374,40 @@
         <v>106</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="7">
         <v>3500</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="K9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M9" s="7">
         <v>1000</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O9" s="7">
         <v>1000</v>
@@ -2431,40 +2421,40 @@
         <v>107</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="7">
         <v>3500</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="K10" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O10" s="7">
         <v>1000</v>
@@ -2478,40 +2468,40 @@
         <v>108</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="7">
         <v>3500</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="K11" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>1000</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O11" s="7">
         <v>1000</v>
@@ -2525,40 +2515,40 @@
         <v>109</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="7">
         <v>3500</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="K12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M12" s="7">
         <v>1000</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O12" s="7">
         <v>1000</v>
@@ -2572,40 +2562,40 @@
         <v>110</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="7">
         <v>3500</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="7">
-        <v>1500</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="K13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1500</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1500</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>1000</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O13" s="7">
         <v>1000</v>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F446B-2668-4107-A4CA-7EF26AB6671C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF1285-B147-41C7-B0E2-DF60F2F7EDF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2139,7 +2139,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>113</v>
@@ -2186,7 +2186,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>113</v>
@@ -2233,7 +2233,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>113</v>
@@ -2280,7 +2280,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>113</v>
@@ -2327,7 +2327,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>113</v>
@@ -2374,7 +2374,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>113</v>
@@ -2421,7 +2421,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>113</v>
@@ -2468,7 +2468,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>113</v>
@@ -2515,7 +2515,7 @@
         <v>109</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>113</v>
@@ -2562,7 +2562,7 @@
         <v>110</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>113</v>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF1285-B147-41C7-B0E2-DF60F2F7EDF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93165301-D3ED-4598-8BAA-B0617315D33E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1552,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,19 +1678,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>101</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>62</v>
+        <v>102</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1705,27 +1705,29 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>102</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>71</v>
+        <v>103</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
       </c>
       <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1740,20 +1742,18 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>10</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>103</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -1761,8 +1761,8 @@
       <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>63</v>
+      <c r="F6" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>104</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1820,10 +1820,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1884,16 +1884,17 @@
       <c r="K9" s="7">
         <v>5</v>
       </c>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1902,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -1919,40 +1920,39 @@
       <c r="K10" s="7">
         <v>5</v>
       </c>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>108</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="B14" s="7">
+        <v>101</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K14" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC1019-3F24-4F11-A78C-B26745FD98EA}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93165301-D3ED-4598-8BAA-B0617315D33E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5406DE-D6A8-4333-A3EA-836F1C02D940}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
   <si>
     <t>sheet名</t>
   </si>
@@ -575,6 +575,59 @@
       </rPr>
       <t>nt:&lt;</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-041148fe7e51e3c8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-3a510a818be9b824</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-bd5710b33f4ab9c4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-b3d6f7ef26a73f23</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-42fa4e89a092d971</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-f95abc6177db2865</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-0d2775fcc14afa90</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +870,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +917,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1552,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1565,10 +1621,11 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="29" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="30" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1585,25 +1642,28 @@
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1619,26 +1679,29 @@
       <c r="E2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -1655,25 +1718,28 @@
         <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1689,28 +1755,31 @@
       <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>10</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1727,25 +1796,28 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1761,26 +1833,29 @@
       <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1796,26 +1871,29 @@
       <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1831,26 +1909,29 @@
       <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1867,26 +1948,29 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>5</v>
       </c>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1903,25 +1987,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -1937,24 +2024,28 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>5</v>
       </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5406DE-D6A8-4333-A3EA-836F1C02D940}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A92A368-8869-43F5-99DF-6E7C9F08BBA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
   <si>
     <t>sheet名</t>
   </si>
@@ -610,24 +610,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>string:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>ad</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>adunit-2dbeb40a526d50ca</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1602,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1633,7 @@
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>38</v>
@@ -1680,7 +1671,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -1744,22 +1735,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>102</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1774,32 +1765,30 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>103</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
       </c>
       <c r="E5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>128</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1814,18 +1803,20 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>104</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>78</v>
+        <v>103</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -1834,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>78</v>
+        <v>129</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1860,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>105</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1872,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1898,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
         <v>2</v>
@@ -1910,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1936,22 +1927,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>132</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1968,17 +1959,16 @@
       <c r="L9" s="7">
         <v>5</v>
       </c>
-      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1987,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2007,40 +1997,43 @@
       <c r="L10" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="7">
-        <v>101</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="F11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="J11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="L11" s="7">
         <v>5</v>
       </c>
     </row>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A92A368-8869-43F5-99DF-6E7C9F08BBA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A598D0-BE1D-4984-A983-223D8899DA59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A598D0-BE1D-4984-A983-223D8899DA59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D057A-7D35-4BC7-9781-488163EEC116}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1741,7 @@
         <v>62</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D057A-7D35-4BC7-9781-488163EEC116}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA49A1-096A-4027-A35D-DDF691AA772E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/share.分享.xlsx
+++ b/Excel/share.分享.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA49A1-096A-4027-A35D-DDF691AA772E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC6308-8F4B-4BC1-B491-4C387DFAC684}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1351,6 +1351,11 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -1463,7 +1468,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A40BCE1-A388-4BB1-B4FB-80D05616CFD4}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
